--- a/medicine/Enfance/Les_Monstres_de_l'espace_(roman)/Les_Monstres_de_l'espace_(roman).xlsx
+++ b/medicine/Enfance/Les_Monstres_de_l'espace_(roman)/Les_Monstres_de_l'espace_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Monstres_de_l%27espace_(roman)</t>
+          <t>Les_Monstres_de_l'espace_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Monstres de l'espace est le 18e roman de la série Bob Morane écrit par Henri Vernes et publié en 1956 pour les éditions Gérard et Cie dans la collection Marabout junior (n°86).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Monstres_de_l%27espace_(roman)</t>
+          <t>Les_Monstres_de_l'espace_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bob Morane
 Allan Wood : ami de Bob Morane, il habite Walobo dans le centre de l'Afrique. Il guide les touristes dans des safaris.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Monstres_de_l%27espace_(roman)</t>
+          <t>Les_Monstres_de_l'espace_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un aérolithe s'écrase en Afrique sur le plateau inaccessible de la tribu des Balébélés. Quelques mois plus tard, une entité y apparaît, tue les êtres vivants qu'elle rencontre et leur suce toutes leurs substances internes. Paul Rivière, un biologiste intéressé par l'exobiologie, va enquêter sur place, accompagné de son ami, l'archéologue Aristide Clairembart, et de Bob Morane. 
 À Walobo, ils s'adjoignent le guide Allan Wood et partent pour le plateau des Balébélés, où Morane et Wood ont déjà pénétré dans La Vallée des brontosaures. Les Balébélés sont terrifiés depuis l'apparition du monstre que l'on croit d'origine extraterrestre. Toute arme semble contre lui désuète. Après l'avoir surveillé pendant quelques jours, le groupe s'aperçoit que la créature semble mourir de sa belle mort. Elle s'enfonce finalement dans un marécage d'où il reparaîtra plus.
